--- a/Document/01_개발스케줄표_ver0.16.xlsx
+++ b/Document/01_개발스케줄표_ver0.16.xlsx
@@ -1,28 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Polaris Office Sheet" lastEdited="7" lowestEdited="6" rupBuild="10.105.228.52576"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bitcamp\Desktop\NewDawn\Document\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85EB1F4F-D218-4C71-8728-29F280D5CE68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="580" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" tabRatio="580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors/>
-  <commentList/>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="57">
   <si>
     <t>이름</t>
   </si>
@@ -174,53 +172,20 @@
     <t>전세계</t>
   </si>
   <si>
-    <t xml:space="preserve">증가추세 분석 </t>
-  </si>
-  <si>
-    <t>인구 증가 추세 분석</t>
-  </si>
-  <si>
     <t>인구 증가
 추세 분석</t>
   </si>
   <si>
-    <t>증가추세 메인 페이지 UI/UX 구현</t>
-  </si>
-  <si>
-    <t>인구 밀집도 메인 페이지 UI/UX 구현</t>
-  </si>
-  <si>
-    <t>인구 증가추세 메인 페이지 UI/UX 구현</t>
-  </si>
-  <si>
     <t>인구 증가추세 분석 페이지 UI/UX 구현</t>
   </si>
   <si>
     <t>인구 지역추천 및 업종추천 페이지 UI/UX 구현</t>
   </si>
   <si>
-    <t>증가 추세 분석 - 분석 결과 조회 기능 구현</t>
-  </si>
-  <si>
-    <t>증가 추세 분석 - 조건 선택 기능 구현</t>
-  </si>
-  <si>
-    <t>증가추세 예측 - 거주지 및 업종 추천 기능 구현</t>
-  </si>
-  <si>
     <t>증가 추세 메인 - 조건별 시각화 자료 출력 기능 구현</t>
   </si>
   <si>
     <t>증가 추세 분석 - 정보 입력 기능 구현</t>
-  </si>
-  <si>
-    <t>증가추세 예측 - 조건(연도별) 선택 기능 구현</t>
-  </si>
-  <si>
-    <t>증가추세 분석 - 조건(연도별) 선택 기능 구현</t>
-  </si>
-  <si>
-    <t xml:space="preserve">증가추세 분석 - </t>
   </si>
   <si>
     <t>증가추세 분석 - 조건에 따른 지역 추천 기능 구현</t>
@@ -235,301 +200,192 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="28">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
       <scheme val="minor"/>
-      <color theme="1"/>
     </font>
     <font>
-      <sz val="8.0"/>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
       <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
-      <color rgb="FF000000"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
-      <color theme="1"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="HY그래픽M"/>
-      <color theme="1"/>
+      <family val="1"/>
+      <charset val="129"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="HY그래픽M"/>
-      <color theme="1"/>
+      <family val="1"/>
+      <charset val="129"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
       <name val="HY그래픽M"/>
-      <color rgb="FF0070C0"/>
+      <family val="1"/>
+      <charset val="129"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="HY그래픽M"/>
-      <color rgb="FFFF0000"/>
+      <family val="1"/>
+      <charset val="129"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
-      <color theme="10"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <color theme="11"/>
       <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
-      <color theme="11"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color rgb="FFFF0000"/>
-    </font>
-    <font>
-      <sz val="18.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color theme="3"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color theme="3"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color theme="3"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color theme="3"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color rgb="FF3F3F76"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color rgb="FF3F3F3F"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color rgb="FFFA7D00"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color rgb="FFFFFFFF"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color rgb="FFFA7D00"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color theme="1"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color rgb="FF006100"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color rgb="FF9C0006"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color rgb="FF9C6500"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color theme="0"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color rgb="FF7F7F7F"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <color theme="1"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <color theme="1"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11.0"/>
-      <name val="HY그래픽M"/>
-      <color theme="1"/>
     </font>
   </fonts>
-  <fills count="44">
+  <fills count="25">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FF000000"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799980"/>
+        <fgColor theme="9" tint="0.79995117038483843"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599990"/>
+        <fgColor theme="9" tint="0.59996337778862885"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="-0.249980"/>
+        <fgColor theme="9" tint="-0.249977111117893"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399980"/>
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="-0.499980"/>
+        <fgColor theme="9" tint="-0.49995422223578601"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799980"/>
+        <fgColor theme="8" tint="0.79995117038483843"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799980"/>
+        <fgColor theme="7" tint="0.79995117038483843"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599990"/>
+        <fgColor theme="7" tint="0.59996337778862885"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399980"/>
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599990"/>
+        <fgColor theme="4" tint="0.59996337778862885"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799980"/>
+        <fgColor theme="5" tint="0.79995117038483843"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599990"/>
+        <fgColor theme="5" tint="0.59996337778862885"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="-0.249980"/>
+        <fgColor theme="4" tint="-0.249977111117893"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="-0.499980"/>
+        <fgColor theme="5" tint="-0.49995422223578601"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399980"/>
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399980"/>
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="-0.499980"/>
+        <fgColor theme="4" tint="-0.49995422223578601"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.049990"/>
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -563,127 +419,14 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799980"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799980"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599990"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399980"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599990"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399980"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="34">
+  <borders count="25">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -698,6 +441,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -710,6 +454,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -724,6 +469,7 @@
       <bottom style="double">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -738,6 +484,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -752,6 +499,7 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -764,6 +512,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -776,6 +525,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -790,6 +540,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -804,6 +555,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -818,6 +570,7 @@
       <bottom style="double">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -830,6 +583,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -844,6 +598,7 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -858,6 +613,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -870,6 +626,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -884,6 +641,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -898,6 +656,7 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -912,6 +671,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -926,6 +686,7 @@
       <bottom style="double">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -940,6 +701,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -954,104 +716,31 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4"/>
-      </bottom>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color rgb="FFACCCEA"/>
-      </bottom>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.399980"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF000000"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -1059,31 +748,10 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -1096,580 +764,419 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="7" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="21" applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="25" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="26" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="25" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="27" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="28" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="29" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="38" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="39" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="40" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="42" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="43" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="17" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="30" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="30" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="30" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="50">
-    <cellStyle name="20% - 강조색1" xfId="26" builtinId="30"/>
-    <cellStyle name="20% - 강조색2" xfId="30" builtinId="34"/>
-    <cellStyle name="20% - 강조색3" xfId="34" builtinId="38"/>
-    <cellStyle name="20% - 강조색4" xfId="38" builtinId="42"/>
-    <cellStyle name="20% - 강조색5" xfId="42" builtinId="46"/>
-    <cellStyle name="20% - 강조색6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 강조색1" xfId="27" builtinId="31"/>
-    <cellStyle name="40% - 강조색2" xfId="31" builtinId="35"/>
-    <cellStyle name="40% - 강조색3" xfId="35" builtinId="39"/>
-    <cellStyle name="40% - 강조색4" xfId="39" builtinId="43"/>
-    <cellStyle name="40% - 강조색5" xfId="43" builtinId="47"/>
-    <cellStyle name="40% - 강조색6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 강조색1" xfId="28" builtinId="32"/>
-    <cellStyle name="60% - 강조색2" xfId="32" builtinId="36"/>
-    <cellStyle name="60% - 강조색3" xfId="36" builtinId="40"/>
-    <cellStyle name="60% - 강조색4" xfId="40" builtinId="44"/>
-    <cellStyle name="60% - 강조색5" xfId="44" builtinId="48"/>
-    <cellStyle name="60% - 강조색6" xfId="48" builtinId="52"/>
-    <cellStyle name="강조색1" xfId="25" builtinId="29"/>
-    <cellStyle name="강조색2" xfId="29" builtinId="33"/>
-    <cellStyle name="강조색3" xfId="33" builtinId="37"/>
-    <cellStyle name="강조색4" xfId="37" builtinId="41"/>
-    <cellStyle name="강조색5" xfId="41" builtinId="45"/>
-    <cellStyle name="강조색6" xfId="45" builtinId="49"/>
-    <cellStyle name="경고문" xfId="10" builtinId="11"/>
-    <cellStyle name="계산" xfId="18" builtinId="22"/>
-    <cellStyle name="나쁨" xfId="23" builtinId="27"/>
-    <cellStyle name="메모" xfId="9" builtinId="10"/>
-    <cellStyle name="백분율" xfId="4" builtinId="5"/>
-    <cellStyle name="보통" xfId="24" builtinId="28"/>
-    <cellStyle name="설명텍스트" xfId="49" builtinId="53"/>
-    <cellStyle name="셀 확인" xfId="19" builtinId="23"/>
-    <cellStyle name="쉼표" xfId="2" builtinId="3"/>
-    <cellStyle name="쉼표[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="연결된 셀" xfId="20" builtinId="24"/>
-    <cellStyle name="열어본 하이퍼링크" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="요약" xfId="21" builtinId="25"/>
-    <cellStyle name="입력" xfId="16" builtinId="20"/>
-    <cellStyle name="제목" xfId="11" builtinId="15"/>
-    <cellStyle name="제목 1" xfId="12" builtinId="16"/>
-    <cellStyle name="제목 2" xfId="13" builtinId="17"/>
-    <cellStyle name="제목 3" xfId="14" builtinId="18"/>
-    <cellStyle name="제목 4" xfId="15" builtinId="19"/>
-    <cellStyle name="좋음" xfId="22" builtinId="26"/>
-    <cellStyle name="출력" xfId="17" builtinId="21"/>
-    <cellStyle name="통화" xfId="3" builtinId="4"/>
-    <cellStyle name="통화[0]" xfId="6" builtinId="7"/>
+  <cellStyles count="4">
+    <cellStyle name="열어 본 하이퍼링크" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="하이퍼링크" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="표준 2" xfId="1"/>
+    <cellStyle name="표준 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="하이퍼링크" xfId="2" builtinId="8" hidden="1"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1935,114 +1442,115 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BF55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="D56" sqref="D56"/>
+      <selection pane="bottomRight" activeCell="G66" sqref="G66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.100000" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" style="14" width="14.75500011" customWidth="1" outlineLevel="0"/>
-    <col min="2" max="2" style="14" width="12.38000011" customWidth="1" outlineLevel="0"/>
-    <col min="3" max="3" style="14" width="5.75500011" customWidth="1" outlineLevel="0"/>
-    <col min="4" max="4" style="14" width="51.25500107" customWidth="1" outlineLevel="0"/>
-    <col min="5" max="6" style="14" width="13.25500011" customWidth="1" outlineLevel="0"/>
-    <col min="7" max="7" style="14" width="14.63000011" customWidth="1" outlineLevel="0"/>
-    <col min="8" max="58" style="14" width="3.63000011" customWidth="1" outlineLevel="0"/>
-    <col min="59" max="16384" style="14" width="9.00500011" customWidth="1" outlineLevel="0"/>
+    <col min="1" max="1" width="14.75" style="14" customWidth="1"/>
+    <col min="2" max="2" width="12.375" style="14" customWidth="1"/>
+    <col min="3" max="3" width="5.75" style="14" customWidth="1"/>
+    <col min="4" max="4" width="51.25" style="14" customWidth="1"/>
+    <col min="5" max="6" width="13.25" style="14" customWidth="1"/>
+    <col min="7" max="7" width="14.625" style="14" customWidth="1"/>
+    <col min="8" max="58" width="3.625" style="14" customWidth="1"/>
+    <col min="59" max="59" width="9" style="14" customWidth="1"/>
+    <col min="60" max="16384" width="9" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:58" ht="20.100000" customHeight="1">
-      <c r="A1" s="76" t="s">
+    <row r="1" spans="1:58" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="59" t="s">
+      <c r="B1" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="59" t="s">
+      <c r="C1" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="59" t="s">
+      <c r="D1" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="59" t="s">
+      <c r="E1" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="59" t="s">
+      <c r="F1" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="77" t="s">
+      <c r="G1" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="59">
+      <c r="H1" s="61">
         <v>2024.07</v>
       </c>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59"/>
-      <c r="O1" s="59"/>
-      <c r="P1" s="59"/>
-      <c r="Q1" s="59"/>
-      <c r="R1" s="59"/>
-      <c r="S1" s="59"/>
-      <c r="T1" s="59"/>
-      <c r="U1" s="59"/>
-      <c r="V1" s="59"/>
-      <c r="W1" s="59"/>
-      <c r="X1" s="59"/>
-      <c r="Y1" s="59"/>
-      <c r="Z1" s="59"/>
-      <c r="AA1" s="59"/>
-      <c r="AB1" s="59"/>
-      <c r="AC1" s="59">
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="61"/>
+      <c r="N1" s="61"/>
+      <c r="O1" s="61"/>
+      <c r="P1" s="61"/>
+      <c r="Q1" s="61"/>
+      <c r="R1" s="61"/>
+      <c r="S1" s="61"/>
+      <c r="T1" s="61"/>
+      <c r="U1" s="61"/>
+      <c r="V1" s="61"/>
+      <c r="W1" s="61"/>
+      <c r="X1" s="61"/>
+      <c r="Y1" s="61"/>
+      <c r="Z1" s="61"/>
+      <c r="AA1" s="61"/>
+      <c r="AB1" s="61"/>
+      <c r="AC1" s="61">
         <v>2024.08</v>
       </c>
-      <c r="AD1" s="59"/>
-      <c r="AE1" s="59"/>
-      <c r="AF1" s="59"/>
-      <c r="AG1" s="59"/>
-      <c r="AH1" s="59"/>
-      <c r="AI1" s="59"/>
-      <c r="AJ1" s="59"/>
-      <c r="AK1" s="59"/>
-      <c r="AL1" s="59"/>
-      <c r="AM1" s="59"/>
-      <c r="AN1" s="59"/>
-      <c r="AO1" s="59"/>
-      <c r="AP1" s="59"/>
-      <c r="AQ1" s="59"/>
-      <c r="AR1" s="59"/>
-      <c r="AS1" s="59"/>
-      <c r="AT1" s="59"/>
-      <c r="AU1" s="59"/>
-      <c r="AV1" s="59"/>
-      <c r="AW1" s="59"/>
-      <c r="AX1" s="59"/>
-      <c r="AY1" s="59"/>
-      <c r="AZ1" s="59"/>
-      <c r="BA1" s="59"/>
-      <c r="BB1" s="59"/>
-      <c r="BC1" s="59"/>
-      <c r="BD1" s="59"/>
-      <c r="BE1" s="59"/>
-      <c r="BF1" s="60"/>
+      <c r="AD1" s="61"/>
+      <c r="AE1" s="61"/>
+      <c r="AF1" s="61"/>
+      <c r="AG1" s="61"/>
+      <c r="AH1" s="61"/>
+      <c r="AI1" s="61"/>
+      <c r="AJ1" s="61"/>
+      <c r="AK1" s="61"/>
+      <c r="AL1" s="61"/>
+      <c r="AM1" s="61"/>
+      <c r="AN1" s="61"/>
+      <c r="AO1" s="61"/>
+      <c r="AP1" s="61"/>
+      <c r="AQ1" s="61"/>
+      <c r="AR1" s="61"/>
+      <c r="AS1" s="61"/>
+      <c r="AT1" s="61"/>
+      <c r="AU1" s="61"/>
+      <c r="AV1" s="61"/>
+      <c r="AW1" s="61"/>
+      <c r="AX1" s="61"/>
+      <c r="AY1" s="61"/>
+      <c r="AZ1" s="61"/>
+      <c r="BA1" s="61"/>
+      <c r="BB1" s="61"/>
+      <c r="BC1" s="61"/>
+      <c r="BD1" s="61"/>
+      <c r="BE1" s="61"/>
+      <c r="BF1" s="65"/>
     </row>
-    <row r="2" spans="1:58" ht="20.100000" customHeight="1">
-      <c r="A2" s="78"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="75"/>
+    <row r="2" spans="1:58" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="60"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="64"/>
       <c r="H2" s="44">
         <v>11</v>
       </c>
@@ -2193,15 +1701,15 @@
       <c r="BE2" s="44">
         <v>29</v>
       </c>
-      <c r="BF2" s="61">
+      <c r="BF2" s="50">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:58" ht="20.100000" customHeight="1">
-      <c r="A3" s="81" t="s">
+    <row r="3" spans="1:58" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="68" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="1">
@@ -2219,61 +1727,61 @@
       <c r="G3" s="1">
         <v>2</v>
       </c>
-      <c r="H3" s="82"/>
-      <c r="I3" s="82"/>
-      <c r="J3" s="83"/>
-      <c r="K3" s="84"/>
-      <c r="L3" s="83"/>
-      <c r="M3" s="83"/>
-      <c r="N3" s="83"/>
-      <c r="O3" s="83"/>
-      <c r="P3" s="83"/>
-      <c r="Q3" s="83"/>
-      <c r="R3" s="84"/>
-      <c r="S3" s="83"/>
-      <c r="T3" s="83"/>
-      <c r="U3" s="83"/>
-      <c r="V3" s="83"/>
-      <c r="W3" s="83"/>
-      <c r="X3" s="83"/>
-      <c r="Y3" s="84"/>
-      <c r="Z3" s="83"/>
-      <c r="AA3" s="83"/>
-      <c r="AB3" s="83"/>
-      <c r="AC3" s="83"/>
-      <c r="AD3" s="83"/>
-      <c r="AE3" s="83"/>
-      <c r="AF3" s="84"/>
-      <c r="AG3" s="83"/>
-      <c r="AH3" s="83"/>
-      <c r="AI3" s="83"/>
-      <c r="AJ3" s="83"/>
-      <c r="AK3" s="83"/>
-      <c r="AL3" s="83"/>
-      <c r="AM3" s="84"/>
-      <c r="AN3" s="83"/>
-      <c r="AO3" s="83"/>
-      <c r="AP3" s="83"/>
-      <c r="AQ3" s="83"/>
-      <c r="AR3" s="83"/>
-      <c r="AS3" s="83"/>
-      <c r="AT3" s="84"/>
-      <c r="AU3" s="83"/>
-      <c r="AV3" s="83"/>
-      <c r="AW3" s="83"/>
-      <c r="AX3" s="83"/>
-      <c r="AY3" s="83"/>
-      <c r="AZ3" s="83"/>
-      <c r="BA3" s="84"/>
-      <c r="BB3" s="83"/>
-      <c r="BC3" s="83"/>
-      <c r="BD3" s="83"/>
-      <c r="BE3" s="83"/>
-      <c r="BF3" s="85"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="56"/>
+      <c r="M3" s="56"/>
+      <c r="N3" s="56"/>
+      <c r="O3" s="56"/>
+      <c r="P3" s="56"/>
+      <c r="Q3" s="56"/>
+      <c r="R3" s="57"/>
+      <c r="S3" s="56"/>
+      <c r="T3" s="56"/>
+      <c r="U3" s="56"/>
+      <c r="V3" s="56"/>
+      <c r="W3" s="56"/>
+      <c r="X3" s="56"/>
+      <c r="Y3" s="57"/>
+      <c r="Z3" s="56"/>
+      <c r="AA3" s="56"/>
+      <c r="AB3" s="56"/>
+      <c r="AC3" s="56"/>
+      <c r="AD3" s="56"/>
+      <c r="AE3" s="56"/>
+      <c r="AF3" s="57"/>
+      <c r="AG3" s="56"/>
+      <c r="AH3" s="56"/>
+      <c r="AI3" s="56"/>
+      <c r="AJ3" s="56"/>
+      <c r="AK3" s="56"/>
+      <c r="AL3" s="56"/>
+      <c r="AM3" s="57"/>
+      <c r="AN3" s="56"/>
+      <c r="AO3" s="56"/>
+      <c r="AP3" s="56"/>
+      <c r="AQ3" s="56"/>
+      <c r="AR3" s="56"/>
+      <c r="AS3" s="56"/>
+      <c r="AT3" s="57"/>
+      <c r="AU3" s="56"/>
+      <c r="AV3" s="56"/>
+      <c r="AW3" s="56"/>
+      <c r="AX3" s="56"/>
+      <c r="AY3" s="56"/>
+      <c r="AZ3" s="56"/>
+      <c r="BA3" s="57"/>
+      <c r="BB3" s="56"/>
+      <c r="BC3" s="56"/>
+      <c r="BD3" s="56"/>
+      <c r="BE3" s="56"/>
+      <c r="BF3" s="58"/>
     </row>
-    <row r="4" spans="1:58" ht="20.100000" customHeight="1">
-      <c r="A4" s="86"/>
-      <c r="B4" s="17"/>
+    <row r="4" spans="1:58" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="67"/>
+      <c r="B4" s="69"/>
       <c r="C4" s="17">
         <v>2</v>
       </c>
@@ -2290,8 +1798,8 @@
         <v>2</v>
       </c>
       <c r="H4" s="40"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="48"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="71"/>
       <c r="K4" s="41"/>
       <c r="L4" s="40"/>
       <c r="M4" s="40"/>
@@ -2339,13 +1847,13 @@
       <c r="BC4" s="40"/>
       <c r="BD4" s="40"/>
       <c r="BE4" s="40"/>
-      <c r="BF4" s="63"/>
+      <c r="BF4" s="52"/>
     </row>
-    <row r="5" spans="1:58" ht="20.100000" customHeight="1">
-      <c r="A5" s="65" t="s">
+    <row r="5" spans="1:58" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="74" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="5">
@@ -2413,11 +1921,11 @@
       <c r="BC5" s="36"/>
       <c r="BD5" s="36"/>
       <c r="BE5" s="36"/>
-      <c r="BF5" s="62"/>
+      <c r="BF5" s="51"/>
     </row>
-    <row r="6" spans="1:58" ht="20.100000" customHeight="1">
-      <c r="A6" s="79"/>
-      <c r="B6" s="3"/>
+    <row r="6" spans="1:58" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="73"/>
+      <c r="B6" s="75"/>
       <c r="C6" s="3">
         <v>4</v>
       </c>
@@ -2483,11 +1991,11 @@
       <c r="BC6" s="22"/>
       <c r="BD6" s="22"/>
       <c r="BE6" s="22"/>
-      <c r="BF6" s="64"/>
+      <c r="BF6" s="53"/>
     </row>
-    <row r="7" spans="1:58" ht="20.100000" customHeight="1">
-      <c r="A7" s="79"/>
-      <c r="B7" s="3"/>
+    <row r="7" spans="1:58" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="73"/>
+      <c r="B7" s="75"/>
       <c r="C7" s="3">
         <v>5</v>
       </c>
@@ -2508,8 +2016,8 @@
       <c r="J7" s="22"/>
       <c r="K7" s="23"/>
       <c r="L7" s="22"/>
-      <c r="M7" s="87"/>
-      <c r="N7" s="88"/>
+      <c r="M7" s="76"/>
+      <c r="N7" s="77"/>
       <c r="O7" s="22"/>
       <c r="P7" s="22"/>
       <c r="Q7" s="22"/>
@@ -2553,13 +2061,13 @@
       <c r="BC7" s="22"/>
       <c r="BD7" s="22"/>
       <c r="BE7" s="22"/>
-      <c r="BF7" s="64"/>
+      <c r="BF7" s="53"/>
     </row>
-    <row r="8" spans="1:58" ht="20.100000" customHeight="1">
-      <c r="A8" s="80" t="s">
+    <row r="8" spans="1:58" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="79" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="7">
@@ -2627,11 +2135,11 @@
       <c r="BC8" s="22"/>
       <c r="BD8" s="22"/>
       <c r="BE8" s="22"/>
-      <c r="BF8" s="64"/>
+      <c r="BF8" s="53"/>
     </row>
-    <row r="9" spans="1:58" ht="20.100000" customHeight="1">
-      <c r="A9" s="80"/>
-      <c r="B9" s="7"/>
+    <row r="9" spans="1:58" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="78"/>
+      <c r="B9" s="79"/>
       <c r="C9" s="7">
         <v>7</v>
       </c>
@@ -2659,10 +2167,10 @@
       <c r="Q9" s="22"/>
       <c r="R9" s="23"/>
       <c r="S9" s="22"/>
-      <c r="T9" s="50"/>
-      <c r="U9" s="50"/>
-      <c r="V9" s="50"/>
-      <c r="W9" s="50"/>
+      <c r="T9" s="80"/>
+      <c r="U9" s="80"/>
+      <c r="V9" s="80"/>
+      <c r="W9" s="80"/>
       <c r="X9" s="22"/>
       <c r="Y9" s="23"/>
       <c r="Z9" s="22"/>
@@ -2697,11 +2205,11 @@
       <c r="BC9" s="22"/>
       <c r="BD9" s="22"/>
       <c r="BE9" s="22"/>
-      <c r="BF9" s="64"/>
+      <c r="BF9" s="53"/>
     </row>
-    <row r="10" spans="1:58" ht="20.100000" customHeight="1">
-      <c r="A10" s="80"/>
-      <c r="B10" s="7"/>
+    <row r="10" spans="1:58" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="78"/>
+      <c r="B10" s="79"/>
       <c r="C10" s="7">
         <v>8</v>
       </c>
@@ -2767,11 +2275,11 @@
       <c r="BC10" s="22"/>
       <c r="BD10" s="22"/>
       <c r="BE10" s="22"/>
-      <c r="BF10" s="64"/>
+      <c r="BF10" s="53"/>
     </row>
-    <row r="11" spans="1:58" ht="20.100000" customHeight="1">
-      <c r="A11" s="80"/>
-      <c r="B11" s="7"/>
+    <row r="11" spans="1:58" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="78"/>
+      <c r="B11" s="79"/>
       <c r="C11" s="7">
         <v>9</v>
       </c>
@@ -2806,9 +2314,9 @@
       <c r="X11" s="25"/>
       <c r="Y11" s="23"/>
       <c r="Z11" s="25"/>
-      <c r="AA11" s="51"/>
-      <c r="AB11" s="51"/>
-      <c r="AC11" s="51"/>
+      <c r="AA11" s="81"/>
+      <c r="AB11" s="81"/>
+      <c r="AC11" s="81"/>
       <c r="AD11" s="22"/>
       <c r="AE11" s="25"/>
       <c r="AF11" s="23"/>
@@ -2837,11 +2345,11 @@
       <c r="BC11" s="22"/>
       <c r="BD11" s="22"/>
       <c r="BE11" s="22"/>
-      <c r="BF11" s="64"/>
+      <c r="BF11" s="53"/>
     </row>
-    <row r="12" spans="1:58" ht="20.100000" customHeight="1">
-      <c r="A12" s="80"/>
-      <c r="B12" s="7"/>
+    <row r="12" spans="1:58" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="78"/>
+      <c r="B12" s="79"/>
       <c r="C12" s="7">
         <v>10</v>
       </c>
@@ -2879,8 +2387,8 @@
       <c r="AA12" s="22"/>
       <c r="AB12" s="22"/>
       <c r="AC12" s="25"/>
-      <c r="AD12" s="52"/>
-      <c r="AE12" s="52"/>
+      <c r="AD12" s="82"/>
+      <c r="AE12" s="82"/>
       <c r="AF12" s="23"/>
       <c r="AG12" s="25"/>
       <c r="AH12" s="25"/>
@@ -2907,13 +2415,13 @@
       <c r="BC12" s="22"/>
       <c r="BD12" s="22"/>
       <c r="BE12" s="22"/>
-      <c r="BF12" s="64"/>
+      <c r="BF12" s="53"/>
     </row>
-    <row r="13" spans="1:58" ht="20.100000" customHeight="1">
-      <c r="A13" s="66" t="s">
+    <row r="13" spans="1:58" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="83" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="84" t="s">
         <v>9</v>
       </c>
       <c r="C13" s="8">
@@ -2938,8 +2446,8 @@
       <c r="L13" s="25"/>
       <c r="M13" s="25"/>
       <c r="N13" s="25"/>
-      <c r="O13" s="49"/>
-      <c r="P13" s="49"/>
+      <c r="O13" s="85"/>
+      <c r="P13" s="85"/>
       <c r="Q13" s="25"/>
       <c r="R13" s="30"/>
       <c r="S13" s="25"/>
@@ -2981,11 +2489,11 @@
       <c r="BC13" s="25"/>
       <c r="BD13" s="25"/>
       <c r="BE13" s="25"/>
-      <c r="BF13" s="67"/>
+      <c r="BF13" s="54"/>
     </row>
-    <row r="14" spans="1:58" ht="20.100000" customHeight="1">
-      <c r="A14" s="66"/>
-      <c r="B14" s="9"/>
+    <row r="14" spans="1:58" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="83"/>
+      <c r="B14" s="84"/>
       <c r="C14" s="8">
         <v>12</v>
       </c>
@@ -3026,9 +2534,9 @@
       <c r="AD14" s="25"/>
       <c r="AE14" s="25"/>
       <c r="AF14" s="30"/>
-      <c r="AG14" s="55"/>
-      <c r="AH14" s="55"/>
-      <c r="AI14" s="55"/>
+      <c r="AG14" s="86"/>
+      <c r="AH14" s="86"/>
+      <c r="AI14" s="86"/>
       <c r="AJ14" s="25"/>
       <c r="AK14" s="25"/>
       <c r="AL14" s="25"/>
@@ -3051,11 +2559,11 @@
       <c r="BC14" s="25"/>
       <c r="BD14" s="25"/>
       <c r="BE14" s="25"/>
-      <c r="BF14" s="67"/>
+      <c r="BF14" s="54"/>
     </row>
-    <row r="15" spans="1:58" ht="20.100000" customHeight="1">
-      <c r="A15" s="66"/>
-      <c r="B15" s="9"/>
+    <row r="15" spans="1:58" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="83"/>
+      <c r="B15" s="84"/>
       <c r="C15" s="8">
         <v>13</v>
       </c>
@@ -3099,9 +2607,9 @@
       <c r="AG15" s="25"/>
       <c r="AH15" s="25"/>
       <c r="AI15" s="25"/>
-      <c r="AJ15" s="55"/>
-      <c r="AK15" s="55"/>
-      <c r="AL15" s="55"/>
+      <c r="AJ15" s="86"/>
+      <c r="AK15" s="86"/>
+      <c r="AL15" s="86"/>
       <c r="AM15" s="30"/>
       <c r="AN15" s="25"/>
       <c r="AO15" s="25"/>
@@ -3121,13 +2629,13 @@
       <c r="BC15" s="25"/>
       <c r="BD15" s="25"/>
       <c r="BE15" s="25"/>
-      <c r="BF15" s="67"/>
+      <c r="BF15" s="54"/>
     </row>
-    <row r="16" spans="1:58" ht="20.100000" customHeight="1">
-      <c r="A16" s="68" t="s">
+    <row r="16" spans="1:58" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="87" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="89" t="s">
         <v>17</v>
       </c>
       <c r="C16" s="11">
@@ -3177,8 +2685,8 @@
       <c r="AK16" s="25"/>
       <c r="AL16" s="25"/>
       <c r="AM16" s="30"/>
-      <c r="AN16" s="56"/>
-      <c r="AO16" s="56"/>
+      <c r="AN16" s="91"/>
+      <c r="AO16" s="91"/>
       <c r="AP16" s="25"/>
       <c r="AQ16" s="25"/>
       <c r="AR16" s="25"/>
@@ -3195,11 +2703,11 @@
       <c r="BC16" s="25"/>
       <c r="BD16" s="25"/>
       <c r="BE16" s="25"/>
-      <c r="BF16" s="67"/>
+      <c r="BF16" s="54"/>
     </row>
-    <row r="17" spans="1:58" ht="20.100000" customHeight="1">
-      <c r="A17" s="68"/>
-      <c r="B17" s="12"/>
+    <row r="17" spans="1:58" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="87"/>
+      <c r="B17" s="89"/>
       <c r="C17" s="11">
         <v>15</v>
       </c>
@@ -3265,11 +2773,11 @@
       <c r="BC17" s="25"/>
       <c r="BD17" s="25"/>
       <c r="BE17" s="25"/>
-      <c r="BF17" s="67"/>
+      <c r="BF17" s="54"/>
     </row>
-    <row r="18" spans="1:58" ht="20.100000" customHeight="1">
-      <c r="A18" s="68"/>
-      <c r="B18" s="12"/>
+    <row r="18" spans="1:58" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="87"/>
+      <c r="B18" s="89"/>
       <c r="C18" s="11">
         <v>16</v>
       </c>
@@ -3335,11 +2843,11 @@
       <c r="BC18" s="25"/>
       <c r="BD18" s="25"/>
       <c r="BE18" s="25"/>
-      <c r="BF18" s="67"/>
+      <c r="BF18" s="54"/>
     </row>
-    <row r="19" spans="1:58" ht="20.100000" customHeight="1">
-      <c r="A19" s="68"/>
-      <c r="B19" s="12"/>
+    <row r="19" spans="1:58" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="87"/>
+      <c r="B19" s="89"/>
       <c r="C19" s="11">
         <v>17</v>
       </c>
@@ -3405,11 +2913,11 @@
       <c r="BC19" s="25"/>
       <c r="BD19" s="25"/>
       <c r="BE19" s="25"/>
-      <c r="BF19" s="67"/>
+      <c r="BF19" s="54"/>
     </row>
-    <row r="20" spans="1:58" ht="20.100000" customHeight="1">
-      <c r="A20" s="68"/>
-      <c r="B20" s="12"/>
+    <row r="20" spans="1:58" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="87"/>
+      <c r="B20" s="89"/>
       <c r="C20" s="11">
         <v>18</v>
       </c>
@@ -3475,11 +2983,11 @@
       <c r="BC20" s="25"/>
       <c r="BD20" s="25"/>
       <c r="BE20" s="25"/>
-      <c r="BF20" s="67"/>
+      <c r="BF20" s="54"/>
     </row>
-    <row r="21" spans="1:58" ht="20.100000" customHeight="1">
-      <c r="A21" s="69"/>
-      <c r="B21" s="20"/>
+    <row r="21" spans="1:58" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="88"/>
+      <c r="B21" s="90"/>
       <c r="C21" s="19">
         <v>19</v>
       </c>
@@ -3535,8 +3043,8 @@
       <c r="AS21" s="42"/>
       <c r="AT21" s="43"/>
       <c r="AU21" s="42"/>
-      <c r="AV21" s="57"/>
-      <c r="AW21" s="57"/>
+      <c r="AV21" s="92"/>
+      <c r="AW21" s="92"/>
       <c r="AX21" s="42"/>
       <c r="AY21" s="42"/>
       <c r="AZ21" s="42"/>
@@ -3545,13 +3053,13 @@
       <c r="BC21" s="42"/>
       <c r="BD21" s="42"/>
       <c r="BE21" s="42"/>
-      <c r="BF21" s="70"/>
+      <c r="BF21" s="55"/>
     </row>
-    <row r="22" spans="1:58" ht="20.100000" customHeight="1">
-      <c r="A22" s="65" t="s">
+    <row r="22" spans="1:58" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="74" t="s">
         <v>31</v>
       </c>
       <c r="C22" s="5">
@@ -3619,11 +3127,11 @@
       <c r="BC22" s="36"/>
       <c r="BD22" s="36"/>
       <c r="BE22" s="36"/>
-      <c r="BF22" s="62"/>
+      <c r="BF22" s="51"/>
     </row>
-    <row r="23" spans="1:58" ht="20.100000" customHeight="1">
-      <c r="A23" s="79"/>
-      <c r="B23" s="3"/>
+    <row r="23" spans="1:58" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="73"/>
+      <c r="B23" s="75"/>
       <c r="C23" s="3">
         <v>4</v>
       </c>
@@ -3689,11 +3197,11 @@
       <c r="BC23" s="22"/>
       <c r="BD23" s="22"/>
       <c r="BE23" s="22"/>
-      <c r="BF23" s="64"/>
+      <c r="BF23" s="53"/>
     </row>
-    <row r="24" spans="1:58" ht="20.100000" customHeight="1">
-      <c r="A24" s="79"/>
-      <c r="B24" s="3"/>
+    <row r="24" spans="1:58" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="73"/>
+      <c r="B24" s="75"/>
       <c r="C24" s="3">
         <v>5</v>
       </c>
@@ -3714,8 +3222,8 @@
       <c r="J24" s="22"/>
       <c r="K24" s="23"/>
       <c r="L24" s="26"/>
-      <c r="M24" s="58"/>
-      <c r="N24" s="58"/>
+      <c r="M24" s="49"/>
+      <c r="N24" s="49"/>
       <c r="O24" s="22"/>
       <c r="P24" s="22"/>
       <c r="Q24" s="22"/>
@@ -3759,13 +3267,13 @@
       <c r="BC24" s="22"/>
       <c r="BD24" s="22"/>
       <c r="BE24" s="22"/>
-      <c r="BF24" s="64"/>
+      <c r="BF24" s="53"/>
     </row>
-    <row r="25" spans="1:58" ht="20.100000" customHeight="1">
-      <c r="A25" s="80" t="s">
+    <row r="25" spans="1:58" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="78" t="s">
         <v>32</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="79" t="s">
         <v>31</v>
       </c>
       <c r="C25" s="7">
@@ -3787,19 +3295,19 @@
       <c r="I25" s="22"/>
       <c r="J25" s="22"/>
       <c r="K25" s="23"/>
-      <c r="L25" s="71"/>
-      <c r="M25" s="71"/>
+      <c r="L25" s="93"/>
+      <c r="M25" s="93"/>
       <c r="N25" s="22"/>
       <c r="O25" s="22"/>
       <c r="P25" s="22"/>
       <c r="Q25" s="25"/>
       <c r="R25" s="23"/>
-      <c r="S25" s="46"/>
-      <c r="T25" s="46"/>
-      <c r="U25" s="46"/>
-      <c r="V25" s="46"/>
-      <c r="W25" s="46"/>
-      <c r="X25" s="46"/>
+      <c r="S25" s="22"/>
+      <c r="T25" s="22"/>
+      <c r="U25" s="22"/>
+      <c r="V25" s="22"/>
+      <c r="W25" s="22"/>
+      <c r="X25" s="22"/>
       <c r="Y25" s="23"/>
       <c r="Z25" s="22"/>
       <c r="AA25" s="22"/>
@@ -3833,11 +3341,11 @@
       <c r="BC25" s="22"/>
       <c r="BD25" s="22"/>
       <c r="BE25" s="22"/>
-      <c r="BF25" s="64"/>
+      <c r="BF25" s="53"/>
     </row>
-    <row r="26" spans="1:58" ht="20.100000" customHeight="1">
-      <c r="A26" s="80"/>
-      <c r="B26" s="7"/>
+    <row r="26" spans="1:58" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="78"/>
+      <c r="B26" s="79"/>
       <c r="C26" s="7">
         <v>7</v>
       </c>
@@ -3857,26 +3365,26 @@
       <c r="I26" s="22"/>
       <c r="J26" s="22"/>
       <c r="K26" s="23"/>
-      <c r="L26" s="46"/>
-      <c r="M26" s="50"/>
-      <c r="N26" s="50"/>
+      <c r="L26" s="22"/>
+      <c r="M26" s="80"/>
+      <c r="N26" s="80"/>
       <c r="O26" s="22"/>
       <c r="P26" s="22"/>
       <c r="Q26" s="22"/>
       <c r="R26" s="23"/>
-      <c r="S26" s="46"/>
-      <c r="T26" s="46"/>
-      <c r="U26" s="46"/>
-      <c r="V26" s="46"/>
-      <c r="W26" s="46"/>
-      <c r="X26" s="46"/>
+      <c r="S26" s="22"/>
+      <c r="T26" s="22"/>
+      <c r="U26" s="22"/>
+      <c r="V26" s="22"/>
+      <c r="W26" s="22"/>
+      <c r="X26" s="22"/>
       <c r="Y26" s="23"/>
-      <c r="Z26" s="46"/>
-      <c r="AA26" s="46"/>
-      <c r="AB26" s="46"/>
-      <c r="AC26" s="46"/>
-      <c r="AD26" s="46"/>
-      <c r="AE26" s="46"/>
+      <c r="Z26" s="22"/>
+      <c r="AA26" s="22"/>
+      <c r="AB26" s="22"/>
+      <c r="AC26" s="22"/>
+      <c r="AD26" s="22"/>
+      <c r="AE26" s="22"/>
       <c r="AF26" s="23"/>
       <c r="AG26" s="22"/>
       <c r="AH26" s="22"/>
@@ -3903,11 +3411,11 @@
       <c r="BC26" s="22"/>
       <c r="BD26" s="22"/>
       <c r="BE26" s="22"/>
-      <c r="BF26" s="64"/>
+      <c r="BF26" s="53"/>
     </row>
-    <row r="27" spans="1:58" ht="20.100000" customHeight="1">
-      <c r="A27" s="80"/>
-      <c r="B27" s="7"/>
+    <row r="27" spans="1:58" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="78"/>
+      <c r="B27" s="79"/>
       <c r="C27" s="7">
         <v>9</v>
       </c>
@@ -3930,23 +3438,23 @@
       <c r="L27" s="22"/>
       <c r="M27" s="22"/>
       <c r="N27" s="22"/>
-      <c r="O27" s="51"/>
-      <c r="P27" s="51"/>
-      <c r="Q27" s="51"/>
+      <c r="O27" s="81"/>
+      <c r="P27" s="81"/>
+      <c r="Q27" s="81"/>
       <c r="R27" s="23"/>
-      <c r="S27" s="51"/>
-      <c r="T27" s="51"/>
+      <c r="S27" s="81"/>
+      <c r="T27" s="81"/>
       <c r="U27" s="22"/>
       <c r="V27" s="22"/>
       <c r="W27" s="22"/>
       <c r="X27" s="25"/>
       <c r="Y27" s="23"/>
-      <c r="Z27" s="47"/>
-      <c r="AA27" s="46"/>
-      <c r="AB27" s="46"/>
-      <c r="AC27" s="46"/>
-      <c r="AD27" s="46"/>
-      <c r="AE27" s="47"/>
+      <c r="Z27" s="25"/>
+      <c r="AA27" s="22"/>
+      <c r="AB27" s="22"/>
+      <c r="AC27" s="22"/>
+      <c r="AD27" s="22"/>
+      <c r="AE27" s="25"/>
       <c r="AF27" s="23"/>
       <c r="AG27" s="25"/>
       <c r="AH27" s="25"/>
@@ -3973,11 +3481,11 @@
       <c r="BC27" s="22"/>
       <c r="BD27" s="22"/>
       <c r="BE27" s="22"/>
-      <c r="BF27" s="64"/>
+      <c r="BF27" s="53"/>
     </row>
-    <row r="28" spans="1:58" ht="20.100000" customHeight="1">
-      <c r="A28" s="80"/>
-      <c r="B28" s="7"/>
+    <row r="28" spans="1:58" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="78"/>
+      <c r="B28" s="79"/>
       <c r="C28" s="7">
         <v>10</v>
       </c>
@@ -4011,12 +3519,12 @@
       <c r="W28" s="22"/>
       <c r="X28" s="25"/>
       <c r="Y28" s="23"/>
-      <c r="Z28" s="47"/>
-      <c r="AA28" s="46"/>
-      <c r="AB28" s="46"/>
-      <c r="AC28" s="46"/>
-      <c r="AD28" s="46"/>
-      <c r="AE28" s="47"/>
+      <c r="Z28" s="25"/>
+      <c r="AA28" s="22"/>
+      <c r="AB28" s="22"/>
+      <c r="AC28" s="22"/>
+      <c r="AD28" s="22"/>
+      <c r="AE28" s="25"/>
       <c r="AF28" s="23"/>
       <c r="AG28" s="25"/>
       <c r="AH28" s="25"/>
@@ -4043,11 +3551,11 @@
       <c r="BC28" s="22"/>
       <c r="BD28" s="22"/>
       <c r="BE28" s="22"/>
-      <c r="BF28" s="64"/>
+      <c r="BF28" s="53"/>
     </row>
-    <row r="29" spans="1:58" ht="20.100000" customHeight="1">
-      <c r="A29" s="80"/>
-      <c r="B29" s="7"/>
+    <row r="29" spans="1:58" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="78"/>
+      <c r="B29" s="79"/>
       <c r="C29" s="7">
         <v>11</v>
       </c>
@@ -4081,12 +3589,12 @@
       <c r="W29" s="22"/>
       <c r="X29" s="25"/>
       <c r="Y29" s="23"/>
-      <c r="Z29" s="46"/>
-      <c r="AA29" s="46"/>
-      <c r="AB29" s="46"/>
-      <c r="AC29" s="47"/>
-      <c r="AD29" s="46"/>
-      <c r="AE29" s="46"/>
+      <c r="Z29" s="22"/>
+      <c r="AA29" s="22"/>
+      <c r="AB29" s="22"/>
+      <c r="AC29" s="25"/>
+      <c r="AD29" s="22"/>
+      <c r="AE29" s="22"/>
       <c r="AF29" s="23"/>
       <c r="AG29" s="25"/>
       <c r="AH29" s="25"/>
@@ -4105,21 +3613,21 @@
       <c r="AU29" s="22"/>
       <c r="AV29" s="22"/>
       <c r="AW29" s="25"/>
-      <c r="AX29" s="53"/>
-      <c r="AY29" s="54"/>
+      <c r="AX29" s="94"/>
+      <c r="AY29" s="95"/>
       <c r="AZ29" s="22"/>
       <c r="BA29" s="23"/>
       <c r="BB29" s="22"/>
       <c r="BC29" s="22"/>
       <c r="BD29" s="22"/>
       <c r="BE29" s="22"/>
-      <c r="BF29" s="64"/>
+      <c r="BF29" s="53"/>
     </row>
-    <row r="30" spans="1:58" ht="20.100000" customHeight="1">
-      <c r="A30" s="66" t="s">
+    <row r="30" spans="1:58" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="83" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="84" t="s">
         <v>31</v>
       </c>
       <c r="C30" s="8">
@@ -4144,23 +3652,23 @@
       <c r="L30" s="25"/>
       <c r="M30" s="25"/>
       <c r="N30" s="25"/>
-      <c r="O30" s="47"/>
-      <c r="P30" s="47"/>
-      <c r="Q30" s="47"/>
+      <c r="O30" s="25"/>
+      <c r="P30" s="25"/>
+      <c r="Q30" s="25"/>
       <c r="R30" s="30"/>
       <c r="S30" s="25"/>
       <c r="T30" s="25"/>
       <c r="U30" s="25"/>
-      <c r="V30" s="55"/>
-      <c r="W30" s="55"/>
-      <c r="X30" s="55"/>
+      <c r="V30" s="86"/>
+      <c r="W30" s="86"/>
+      <c r="X30" s="86"/>
       <c r="Y30" s="30"/>
-      <c r="Z30" s="47"/>
-      <c r="AA30" s="47"/>
-      <c r="AB30" s="47"/>
-      <c r="AC30" s="47"/>
-      <c r="AD30" s="47"/>
-      <c r="AE30" s="47"/>
+      <c r="Z30" s="25"/>
+      <c r="AA30" s="25"/>
+      <c r="AB30" s="25"/>
+      <c r="AC30" s="25"/>
+      <c r="AD30" s="25"/>
+      <c r="AE30" s="25"/>
       <c r="AF30" s="30"/>
       <c r="AG30" s="25"/>
       <c r="AH30" s="25"/>
@@ -4187,11 +3695,11 @@
       <c r="BC30" s="25"/>
       <c r="BD30" s="25"/>
       <c r="BE30" s="25"/>
-      <c r="BF30" s="67"/>
+      <c r="BF30" s="54"/>
     </row>
-    <row r="31" spans="1:58" ht="20.100000" customHeight="1">
-      <c r="A31" s="66"/>
-      <c r="B31" s="9"/>
+    <row r="31" spans="1:58" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="83"/>
+      <c r="B31" s="84"/>
       <c r="C31" s="8">
         <v>13</v>
       </c>
@@ -4225,9 +3733,9 @@
       <c r="W31" s="25"/>
       <c r="X31" s="25"/>
       <c r="Y31" s="30"/>
-      <c r="Z31" s="55"/>
-      <c r="AA31" s="55"/>
-      <c r="AB31" s="55"/>
+      <c r="Z31" s="86"/>
+      <c r="AA31" s="86"/>
+      <c r="AB31" s="86"/>
       <c r="AC31" s="25"/>
       <c r="AD31" s="25"/>
       <c r="AE31" s="25"/>
@@ -4257,11 +3765,11 @@
       <c r="BC31" s="25"/>
       <c r="BD31" s="25"/>
       <c r="BE31" s="25"/>
-      <c r="BF31" s="67"/>
+      <c r="BF31" s="54"/>
     </row>
-    <row r="32" spans="1:58" ht="20.100000" customHeight="1">
-      <c r="A32" s="66"/>
-      <c r="B32" s="9"/>
+    <row r="32" spans="1:58" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="83"/>
+      <c r="B32" s="84"/>
       <c r="C32" s="8">
         <v>14</v>
       </c>
@@ -4298,9 +3806,9 @@
       <c r="Z32" s="25"/>
       <c r="AA32" s="25"/>
       <c r="AB32" s="25"/>
-      <c r="AC32" s="55"/>
-      <c r="AD32" s="55"/>
-      <c r="AE32" s="55"/>
+      <c r="AC32" s="86"/>
+      <c r="AD32" s="86"/>
+      <c r="AE32" s="86"/>
       <c r="AF32" s="30"/>
       <c r="AG32" s="25"/>
       <c r="AH32" s="25"/>
@@ -4327,13 +3835,13 @@
       <c r="BC32" s="25"/>
       <c r="BD32" s="25"/>
       <c r="BE32" s="25"/>
-      <c r="BF32" s="67"/>
+      <c r="BF32" s="54"/>
     </row>
-    <row r="33" spans="1:58" ht="20.100000" customHeight="1">
-      <c r="A33" s="68" t="s">
+    <row r="33" spans="1:58" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="87" t="s">
         <v>29</v>
       </c>
-      <c r="B33" s="12" t="s">
+      <c r="B33" s="89" t="s">
         <v>31</v>
       </c>
       <c r="C33" s="11">
@@ -4383,8 +3891,8 @@
       <c r="AK33" s="25"/>
       <c r="AL33" s="25"/>
       <c r="AM33" s="30"/>
-      <c r="AN33" s="47"/>
-      <c r="AO33" s="47"/>
+      <c r="AN33" s="25"/>
+      <c r="AO33" s="25"/>
       <c r="AP33" s="25"/>
       <c r="AQ33" s="25"/>
       <c r="AR33" s="25"/>
@@ -4401,11 +3909,11 @@
       <c r="BC33" s="25"/>
       <c r="BD33" s="25"/>
       <c r="BE33" s="25"/>
-      <c r="BF33" s="67"/>
+      <c r="BF33" s="54"/>
     </row>
-    <row r="34" spans="1:58" ht="20.100000" customHeight="1">
-      <c r="A34" s="68"/>
-      <c r="B34" s="12"/>
+    <row r="34" spans="1:58" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="87"/>
+      <c r="B34" s="89"/>
       <c r="C34" s="11">
         <v>16</v>
       </c>
@@ -4447,14 +3955,14 @@
       <c r="AE34" s="25"/>
       <c r="AF34" s="30"/>
       <c r="AG34" s="25"/>
-      <c r="AH34" s="56"/>
-      <c r="AI34" s="56"/>
-      <c r="AJ34" s="56"/>
+      <c r="AH34" s="91"/>
+      <c r="AI34" s="91"/>
+      <c r="AJ34" s="91"/>
       <c r="AK34" s="25"/>
       <c r="AL34" s="25"/>
       <c r="AM34" s="30"/>
-      <c r="AN34" s="47"/>
-      <c r="AO34" s="47"/>
+      <c r="AN34" s="25"/>
+      <c r="AO34" s="25"/>
       <c r="AP34" s="25"/>
       <c r="AQ34" s="25"/>
       <c r="AR34" s="25"/>
@@ -4471,11 +3979,11 @@
       <c r="BC34" s="25"/>
       <c r="BD34" s="25"/>
       <c r="BE34" s="25"/>
-      <c r="BF34" s="67"/>
+      <c r="BF34" s="54"/>
     </row>
-    <row r="35" spans="1:58" ht="20.100000" customHeight="1">
-      <c r="A35" s="68"/>
-      <c r="B35" s="12"/>
+    <row r="35" spans="1:58" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="87"/>
+      <c r="B35" s="89"/>
       <c r="C35" s="11">
         <v>17</v>
       </c>
@@ -4520,11 +4028,11 @@
       <c r="AH35" s="25"/>
       <c r="AI35" s="25"/>
       <c r="AJ35" s="25"/>
-      <c r="AK35" s="56"/>
-      <c r="AL35" s="56"/>
+      <c r="AK35" s="91"/>
+      <c r="AL35" s="91"/>
       <c r="AM35" s="30"/>
-      <c r="AN35" s="47"/>
-      <c r="AO35" s="47"/>
+      <c r="AN35" s="25"/>
+      <c r="AO35" s="25"/>
       <c r="AP35" s="25"/>
       <c r="AQ35" s="25"/>
       <c r="AR35" s="25"/>
@@ -4541,11 +4049,11 @@
       <c r="BC35" s="25"/>
       <c r="BD35" s="25"/>
       <c r="BE35" s="25"/>
-      <c r="BF35" s="67"/>
+      <c r="BF35" s="54"/>
     </row>
-    <row r="36" spans="1:58" ht="20.100000" customHeight="1">
-      <c r="A36" s="68"/>
-      <c r="B36" s="12"/>
+    <row r="36" spans="1:58" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="87"/>
+      <c r="B36" s="89"/>
       <c r="C36" s="11">
         <v>18</v>
       </c>
@@ -4593,9 +4101,9 @@
       <c r="AK36" s="25"/>
       <c r="AL36" s="25"/>
       <c r="AM36" s="30"/>
-      <c r="AN36" s="72"/>
-      <c r="AO36" s="72"/>
-      <c r="AP36" s="47"/>
+      <c r="AN36" s="96"/>
+      <c r="AO36" s="96"/>
+      <c r="AP36" s="25"/>
       <c r="AQ36" s="25"/>
       <c r="AR36" s="25"/>
       <c r="AS36" s="25"/>
@@ -4611,11 +4119,11 @@
       <c r="BC36" s="25"/>
       <c r="BD36" s="25"/>
       <c r="BE36" s="25"/>
-      <c r="BF36" s="67"/>
+      <c r="BF36" s="54"/>
     </row>
-    <row r="37" spans="1:58" ht="20.100000" customHeight="1">
-      <c r="A37" s="68"/>
-      <c r="B37" s="12"/>
+    <row r="37" spans="1:58" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="87"/>
+      <c r="B37" s="89"/>
       <c r="C37" s="11">
         <v>19</v>
       </c>
@@ -4665,9 +4173,9 @@
       <c r="AM37" s="30"/>
       <c r="AN37" s="25"/>
       <c r="AO37" s="25"/>
-      <c r="AP37" s="73"/>
-      <c r="AQ37" s="73"/>
-      <c r="AR37" s="73"/>
+      <c r="AP37" s="97"/>
+      <c r="AQ37" s="97"/>
+      <c r="AR37" s="97"/>
       <c r="AS37" s="25"/>
       <c r="AT37" s="30"/>
       <c r="AU37" s="25"/>
@@ -4681,11 +4189,11 @@
       <c r="BC37" s="25"/>
       <c r="BD37" s="25"/>
       <c r="BE37" s="25"/>
-      <c r="BF37" s="67"/>
+      <c r="BF37" s="54"/>
     </row>
-    <row r="38" spans="1:58" ht="20.100000" customHeight="1">
-      <c r="A38" s="68"/>
-      <c r="B38" s="12"/>
+    <row r="38" spans="1:58" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="87"/>
+      <c r="B38" s="89"/>
       <c r="C38" s="11">
         <v>19</v>
       </c>
@@ -4751,11 +4259,11 @@
       <c r="BC38" s="25"/>
       <c r="BD38" s="25"/>
       <c r="BE38" s="25"/>
-      <c r="BF38" s="67"/>
+      <c r="BF38" s="54"/>
     </row>
-    <row r="39" spans="1:58" ht="20.100000" customHeight="1">
-      <c r="A39" s="69"/>
-      <c r="B39" s="20"/>
+    <row r="39" spans="1:58" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="88"/>
+      <c r="B39" s="90"/>
       <c r="C39" s="19">
         <v>20</v>
       </c>
@@ -4811,8 +4319,8 @@
       <c r="AS39" s="42"/>
       <c r="AT39" s="43"/>
       <c r="AU39" s="42"/>
-      <c r="AV39" s="74"/>
-      <c r="AW39" s="74"/>
+      <c r="AV39" s="98"/>
+      <c r="AW39" s="98"/>
       <c r="AX39" s="42"/>
       <c r="AY39" s="42"/>
       <c r="AZ39" s="42"/>
@@ -4821,13 +4329,13 @@
       <c r="BC39" s="42"/>
       <c r="BD39" s="42"/>
       <c r="BE39" s="42"/>
-      <c r="BF39" s="70"/>
+      <c r="BF39" s="55"/>
     </row>
-    <row r="40" spans="1:58" ht="20.100000" customHeight="1">
-      <c r="A40" s="65" t="s">
+    <row r="40" spans="1:58" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="74" t="s">
         <v>48</v>
       </c>
       <c r="C40" s="5">
@@ -4895,11 +4403,11 @@
       <c r="BC40" s="36"/>
       <c r="BD40" s="36"/>
       <c r="BE40" s="36"/>
-      <c r="BF40" s="62"/>
+      <c r="BF40" s="51"/>
     </row>
-    <row r="41" spans="1:58" ht="20.100000" customHeight="1">
-      <c r="A41" s="79"/>
-      <c r="B41" s="3"/>
+    <row r="41" spans="1:58" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="73"/>
+      <c r="B41" s="75"/>
       <c r="C41" s="3">
         <v>4</v>
       </c>
@@ -4965,11 +4473,11 @@
       <c r="BC41" s="22"/>
       <c r="BD41" s="22"/>
       <c r="BE41" s="22"/>
-      <c r="BF41" s="64"/>
+      <c r="BF41" s="53"/>
     </row>
-    <row r="42" spans="1:58" ht="20.100000" customHeight="1">
-      <c r="A42" s="79"/>
-      <c r="B42" s="3"/>
+    <row r="42" spans="1:58" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="73"/>
+      <c r="B42" s="75"/>
       <c r="C42" s="3">
         <v>5</v>
       </c>
@@ -4990,8 +4498,8 @@
       <c r="J42" s="22"/>
       <c r="K42" s="23"/>
       <c r="L42" s="22"/>
-      <c r="M42" s="87"/>
-      <c r="N42" s="88"/>
+      <c r="M42" s="76"/>
+      <c r="N42" s="77"/>
       <c r="O42" s="22"/>
       <c r="P42" s="22"/>
       <c r="Q42" s="22"/>
@@ -5035,13 +4543,13 @@
       <c r="BC42" s="22"/>
       <c r="BD42" s="22"/>
       <c r="BE42" s="22"/>
-      <c r="BF42" s="64"/>
+      <c r="BF42" s="53"/>
     </row>
-    <row r="43" spans="1:58" ht="20.100000" customHeight="1">
-      <c r="A43" s="80" t="s">
-        <v>51</v>
-      </c>
-      <c r="B43" s="7" t="s">
+    <row r="43" spans="1:58" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="78" t="s">
+        <v>49</v>
+      </c>
+      <c r="B43" s="79" t="s">
         <v>48</v>
       </c>
       <c r="C43" s="7">
@@ -5065,17 +4573,17 @@
       <c r="K43" s="23"/>
       <c r="L43" s="22"/>
       <c r="M43" s="22"/>
-      <c r="N43" s="71"/>
-      <c r="O43" s="71"/>
+      <c r="N43" s="93"/>
+      <c r="O43" s="93"/>
       <c r="P43" s="22"/>
       <c r="Q43" s="25"/>
       <c r="R43" s="23"/>
-      <c r="S43" s="46"/>
-      <c r="T43" s="46"/>
-      <c r="U43" s="46"/>
-      <c r="V43" s="46"/>
-      <c r="W43" s="46"/>
-      <c r="X43" s="46"/>
+      <c r="S43" s="22"/>
+      <c r="T43" s="22"/>
+      <c r="U43" s="22"/>
+      <c r="V43" s="22"/>
+      <c r="W43" s="22"/>
+      <c r="X43" s="22"/>
       <c r="Y43" s="23"/>
       <c r="Z43" s="22"/>
       <c r="AA43" s="22"/>
@@ -5109,11 +4617,11 @@
       <c r="BC43" s="22"/>
       <c r="BD43" s="22"/>
       <c r="BE43" s="22"/>
-      <c r="BF43" s="64"/>
+      <c r="BF43" s="53"/>
     </row>
-    <row r="44" spans="1:58" ht="20.100000" customHeight="1">
-      <c r="A44" s="80"/>
-      <c r="B44" s="7"/>
+    <row r="44" spans="1:58" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="78"/>
+      <c r="B44" s="79"/>
       <c r="C44" s="7">
         <v>7</v>
       </c>
@@ -5133,26 +4641,26 @@
       <c r="I44" s="22"/>
       <c r="J44" s="22"/>
       <c r="K44" s="23"/>
-      <c r="L44" s="46"/>
+      <c r="L44" s="22"/>
       <c r="M44" s="22"/>
       <c r="N44" s="22"/>
-      <c r="O44" s="90"/>
-      <c r="P44" s="94"/>
-      <c r="Q44" s="91"/>
+      <c r="O44" s="99"/>
+      <c r="P44" s="100"/>
+      <c r="Q44" s="101"/>
       <c r="R44" s="23"/>
-      <c r="S44" s="50"/>
-      <c r="T44" s="46"/>
-      <c r="U44" s="46"/>
-      <c r="V44" s="46"/>
-      <c r="W44" s="46"/>
-      <c r="X44" s="46"/>
+      <c r="S44" s="46"/>
+      <c r="T44" s="22"/>
+      <c r="U44" s="22"/>
+      <c r="V44" s="22"/>
+      <c r="W44" s="22"/>
+      <c r="X44" s="22"/>
       <c r="Y44" s="23"/>
-      <c r="Z44" s="46"/>
-      <c r="AA44" s="46"/>
-      <c r="AB44" s="46"/>
-      <c r="AC44" s="46"/>
-      <c r="AD44" s="46"/>
-      <c r="AE44" s="46"/>
+      <c r="Z44" s="22"/>
+      <c r="AA44" s="22"/>
+      <c r="AB44" s="22"/>
+      <c r="AC44" s="22"/>
+      <c r="AD44" s="22"/>
+      <c r="AE44" s="22"/>
       <c r="AF44" s="23"/>
       <c r="AG44" s="22"/>
       <c r="AH44" s="22"/>
@@ -5179,11 +4687,11 @@
       <c r="BC44" s="22"/>
       <c r="BD44" s="22"/>
       <c r="BE44" s="22"/>
-      <c r="BF44" s="64"/>
+      <c r="BF44" s="53"/>
     </row>
-    <row r="45" spans="1:58" ht="20.100000" customHeight="1">
-      <c r="A45" s="80"/>
-      <c r="B45" s="7"/>
+    <row r="45" spans="1:58" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="78"/>
+      <c r="B45" s="79"/>
       <c r="C45" s="7">
         <v>9</v>
       </c>
@@ -5210,19 +4718,19 @@
       <c r="P45" s="22"/>
       <c r="Q45" s="22"/>
       <c r="R45" s="23"/>
-      <c r="S45" s="98"/>
-      <c r="T45" s="99"/>
+      <c r="S45" s="102"/>
+      <c r="T45" s="103"/>
       <c r="U45" s="22"/>
       <c r="V45" s="22"/>
       <c r="W45" s="22"/>
       <c r="X45" s="25"/>
       <c r="Y45" s="23"/>
-      <c r="Z45" s="47"/>
-      <c r="AA45" s="46"/>
-      <c r="AB45" s="46"/>
-      <c r="AC45" s="46"/>
-      <c r="AD45" s="46"/>
-      <c r="AE45" s="47"/>
+      <c r="Z45" s="25"/>
+      <c r="AA45" s="22"/>
+      <c r="AB45" s="22"/>
+      <c r="AC45" s="22"/>
+      <c r="AD45" s="22"/>
+      <c r="AE45" s="25"/>
       <c r="AF45" s="23"/>
       <c r="AG45" s="25"/>
       <c r="AH45" s="25"/>
@@ -5249,11 +4757,11 @@
       <c r="BC45" s="22"/>
       <c r="BD45" s="22"/>
       <c r="BE45" s="22"/>
-      <c r="BF45" s="64"/>
+      <c r="BF45" s="53"/>
     </row>
-    <row r="46" spans="1:58" ht="20.100000" customHeight="1">
-      <c r="A46" s="80"/>
-      <c r="B46" s="7"/>
+    <row r="46" spans="1:58" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="78"/>
+      <c r="B46" s="79"/>
       <c r="C46" s="7">
         <v>10</v>
       </c>
@@ -5282,17 +4790,17 @@
       <c r="R46" s="23"/>
       <c r="S46" s="22"/>
       <c r="T46" s="22"/>
-      <c r="U46" s="100"/>
-      <c r="V46" s="101"/>
-      <c r="W46" s="101"/>
-      <c r="X46" s="102"/>
+      <c r="U46" s="104"/>
+      <c r="V46" s="105"/>
+      <c r="W46" s="105"/>
+      <c r="X46" s="106"/>
       <c r="Y46" s="23"/>
-      <c r="Z46" s="100"/>
-      <c r="AA46" s="102"/>
-      <c r="AB46" s="46"/>
-      <c r="AC46" s="46"/>
-      <c r="AD46" s="46"/>
-      <c r="AE46" s="47"/>
+      <c r="Z46" s="104"/>
+      <c r="AA46" s="106"/>
+      <c r="AB46" s="22"/>
+      <c r="AC46" s="22"/>
+      <c r="AD46" s="22"/>
+      <c r="AE46" s="25"/>
       <c r="AF46" s="23"/>
       <c r="AG46" s="25"/>
       <c r="AH46" s="25"/>
@@ -5319,11 +4827,11 @@
       <c r="BC46" s="22"/>
       <c r="BD46" s="22"/>
       <c r="BE46" s="22"/>
-      <c r="BF46" s="64"/>
+      <c r="BF46" s="53"/>
     </row>
-    <row r="47" spans="1:58" ht="20.100000" customHeight="1">
-      <c r="A47" s="80"/>
-      <c r="B47" s="7"/>
+    <row r="47" spans="1:58" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="78"/>
+      <c r="B47" s="79"/>
       <c r="C47" s="7">
         <v>11</v>
       </c>
@@ -5357,12 +4865,12 @@
       <c r="W47" s="22"/>
       <c r="X47" s="25"/>
       <c r="Y47" s="23"/>
-      <c r="Z47" s="46"/>
-      <c r="AA47" s="46"/>
-      <c r="AB47" s="52"/>
-      <c r="AC47" s="52"/>
-      <c r="AD47" s="46"/>
-      <c r="AE47" s="46"/>
+      <c r="Z47" s="22"/>
+      <c r="AA47" s="22"/>
+      <c r="AB47" s="82"/>
+      <c r="AC47" s="82"/>
+      <c r="AD47" s="22"/>
+      <c r="AE47" s="22"/>
       <c r="AF47" s="23"/>
       <c r="AG47" s="25"/>
       <c r="AH47" s="25"/>
@@ -5389,20 +4897,20 @@
       <c r="BC47" s="22"/>
       <c r="BD47" s="22"/>
       <c r="BE47" s="22"/>
-      <c r="BF47" s="64"/>
+      <c r="BF47" s="53"/>
     </row>
-    <row r="48" spans="1:58" ht="20.100000" customHeight="1">
-      <c r="A48" s="66" t="s">
+    <row r="48" spans="1:58" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="83" t="s">
         <v>28</v>
       </c>
-      <c r="B48" s="9" t="s">
+      <c r="B48" s="84" t="s">
         <v>48</v>
       </c>
       <c r="C48" s="8">
         <v>12</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E48" s="10">
         <v>45505</v>
@@ -5420,25 +4928,25 @@
       <c r="L48" s="25"/>
       <c r="M48" s="25"/>
       <c r="N48" s="25"/>
-      <c r="O48" s="47"/>
-      <c r="P48" s="47"/>
-      <c r="Q48" s="47"/>
+      <c r="O48" s="25"/>
+      <c r="P48" s="25"/>
+      <c r="Q48" s="25"/>
       <c r="R48" s="30"/>
       <c r="S48" s="25"/>
       <c r="T48" s="25"/>
       <c r="U48" s="25"/>
-      <c r="V48" s="47"/>
-      <c r="W48" s="47"/>
-      <c r="X48" s="47"/>
+      <c r="V48" s="25"/>
+      <c r="W48" s="25"/>
+      <c r="X48" s="25"/>
       <c r="Y48" s="30"/>
-      <c r="Z48" s="47"/>
-      <c r="AA48" s="47"/>
-      <c r="AB48" s="47"/>
-      <c r="AC48" s="55"/>
-      <c r="AD48" s="55"/>
-      <c r="AE48" s="55"/>
+      <c r="Z48" s="25"/>
+      <c r="AA48" s="25"/>
+      <c r="AB48" s="25"/>
+      <c r="AC48" s="86"/>
+      <c r="AD48" s="86"/>
+      <c r="AE48" s="86"/>
       <c r="AF48" s="30"/>
-      <c r="AG48" s="55"/>
+      <c r="AG48" s="47"/>
       <c r="AH48" s="25"/>
       <c r="AI48" s="25"/>
       <c r="AJ48" s="25"/>
@@ -5463,16 +4971,16 @@
       <c r="BC48" s="25"/>
       <c r="BD48" s="25"/>
       <c r="BE48" s="25"/>
-      <c r="BF48" s="67"/>
+      <c r="BF48" s="54"/>
     </row>
-    <row r="49" spans="1:58" ht="20.100000" customHeight="1">
-      <c r="A49" s="66"/>
-      <c r="B49" s="9"/>
+    <row r="49" spans="1:58" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="83"/>
+      <c r="B49" s="84"/>
       <c r="C49" s="8">
         <v>13</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E49" s="10">
         <v>45510</v>
@@ -5501,16 +5009,16 @@
       <c r="W49" s="25"/>
       <c r="X49" s="25"/>
       <c r="Y49" s="30"/>
-      <c r="Z49" s="47"/>
-      <c r="AA49" s="47"/>
-      <c r="AB49" s="47"/>
+      <c r="Z49" s="25"/>
+      <c r="AA49" s="25"/>
+      <c r="AB49" s="25"/>
       <c r="AC49" s="25"/>
       <c r="AD49" s="25"/>
       <c r="AE49" s="25"/>
       <c r="AF49" s="30"/>
       <c r="AG49" s="25"/>
-      <c r="AH49" s="103"/>
-      <c r="AI49" s="104"/>
+      <c r="AH49" s="107"/>
+      <c r="AI49" s="108"/>
       <c r="AJ49" s="25"/>
       <c r="AK49" s="25"/>
       <c r="AL49" s="25"/>
@@ -5533,13 +5041,13 @@
       <c r="BC49" s="25"/>
       <c r="BD49" s="25"/>
       <c r="BE49" s="25"/>
-      <c r="BF49" s="67"/>
+      <c r="BF49" s="54"/>
     </row>
-    <row r="50" spans="1:58" ht="20.100000" customHeight="1">
-      <c r="A50" s="68" t="s">
+    <row r="50" spans="1:58" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="87" t="s">
         <v>29</v>
       </c>
-      <c r="B50" s="12" t="s">
+      <c r="B50" s="89" t="s">
         <v>48</v>
       </c>
       <c r="C50" s="11">
@@ -5585,11 +5093,11 @@
       <c r="AG50" s="25"/>
       <c r="AH50" s="25"/>
       <c r="AI50" s="25"/>
-      <c r="AJ50" s="105"/>
-      <c r="AK50" s="106"/>
-      <c r="AL50" s="107"/>
+      <c r="AJ50" s="109"/>
+      <c r="AK50" s="110"/>
+      <c r="AL50" s="111"/>
       <c r="AM50" s="30"/>
-      <c r="AN50" s="56"/>
+      <c r="AN50" s="48"/>
       <c r="AO50" s="25"/>
       <c r="AP50" s="25"/>
       <c r="AQ50" s="25"/>
@@ -5607,19 +5115,19 @@
       <c r="BC50" s="25"/>
       <c r="BD50" s="25"/>
       <c r="BE50" s="25"/>
-      <c r="BF50" s="67"/>
+      <c r="BF50" s="54"/>
     </row>
-    <row r="51" spans="1:58" ht="20.100000" customHeight="1">
-      <c r="A51" s="68"/>
-      <c r="B51" s="12"/>
+    <row r="51" spans="1:58" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="87"/>
+      <c r="B51" s="89"/>
       <c r="C51" s="11">
         <v>15</v>
       </c>
       <c r="D51" s="12" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="E51" s="13">
-        <v>45518</v>
+        <v>45517</v>
       </c>
       <c r="F51" s="13">
         <v>45518</v>
@@ -5660,8 +5168,8 @@
       <c r="AL51" s="25"/>
       <c r="AM51" s="30"/>
       <c r="AN51" s="25"/>
-      <c r="AO51" s="120"/>
-      <c r="AP51" s="121"/>
+      <c r="AO51" s="112"/>
+      <c r="AP51" s="113"/>
       <c r="AQ51" s="25"/>
       <c r="AR51" s="25"/>
       <c r="AS51" s="25"/>
@@ -5677,22 +5185,22 @@
       <c r="BC51" s="25"/>
       <c r="BD51" s="25"/>
       <c r="BE51" s="25"/>
-      <c r="BF51" s="67"/>
+      <c r="BF51" s="54"/>
     </row>
-    <row r="52" spans="1:58" ht="20.100000" customHeight="1">
-      <c r="A52" s="68"/>
-      <c r="B52" s="12"/>
+    <row r="52" spans="1:58" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="87"/>
+      <c r="B52" s="89"/>
       <c r="C52" s="11">
         <v>16</v>
       </c>
       <c r="D52" s="12" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="E52" s="13">
         <v>45519</v>
       </c>
       <c r="F52" s="13">
-        <v>45519</v>
+        <v>45521</v>
       </c>
       <c r="G52" s="11">
         <v>3</v>
@@ -5732,9 +5240,9 @@
       <c r="AN52" s="25"/>
       <c r="AO52" s="25"/>
       <c r="AP52" s="25"/>
-      <c r="AQ52" s="117"/>
-      <c r="AR52" s="118"/>
-      <c r="AS52" s="119"/>
+      <c r="AQ52" s="114"/>
+      <c r="AR52" s="115"/>
+      <c r="AS52" s="116"/>
       <c r="AT52" s="30"/>
       <c r="AU52" s="25"/>
       <c r="AV52" s="25"/>
@@ -5747,22 +5255,22 @@
       <c r="BC52" s="25"/>
       <c r="BD52" s="25"/>
       <c r="BE52" s="25"/>
-      <c r="BF52" s="67"/>
+      <c r="BF52" s="54"/>
     </row>
-    <row r="53" spans="1:58" ht="20.100000" customHeight="1">
-      <c r="A53" s="68"/>
-      <c r="B53" s="12"/>
+    <row r="53" spans="1:58" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="87"/>
+      <c r="B53" s="89"/>
       <c r="C53" s="11">
         <v>17</v>
       </c>
       <c r="D53" s="12" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="E53" s="13">
-        <v>45520</v>
+        <v>45523</v>
       </c>
       <c r="F53" s="13">
-        <v>45520</v>
+        <v>45525</v>
       </c>
       <c r="G53" s="11">
         <v>3</v>
@@ -5806,9 +5314,9 @@
       <c r="AR53" s="25"/>
       <c r="AS53" s="25"/>
       <c r="AT53" s="30"/>
-      <c r="AU53" s="114"/>
-      <c r="AV53" s="115"/>
-      <c r="AW53" s="116"/>
+      <c r="AU53" s="117"/>
+      <c r="AV53" s="118"/>
+      <c r="AW53" s="119"/>
       <c r="AX53" s="25"/>
       <c r="AY53" s="25"/>
       <c r="AZ53" s="25"/>
@@ -5817,22 +5325,22 @@
       <c r="BC53" s="25"/>
       <c r="BD53" s="25"/>
       <c r="BE53" s="25"/>
-      <c r="BF53" s="67"/>
+      <c r="BF53" s="54"/>
     </row>
-    <row r="54" spans="1:58" ht="20.100000" customHeight="1">
-      <c r="A54" s="68"/>
-      <c r="B54" s="12"/>
+    <row r="54" spans="1:58" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="87"/>
+      <c r="B54" s="89"/>
       <c r="C54" s="11">
         <v>18</v>
       </c>
       <c r="D54" s="12" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="E54" s="13">
-        <v>45521</v>
+        <v>45526</v>
       </c>
       <c r="F54" s="13">
-        <v>45523</v>
+        <v>45530</v>
       </c>
       <c r="G54" s="11">
         <v>4</v>
@@ -5879,30 +5387,30 @@
       <c r="AU54" s="25"/>
       <c r="AV54" s="25"/>
       <c r="AW54" s="25"/>
-      <c r="AX54" s="111"/>
-      <c r="AY54" s="112"/>
-      <c r="AZ54" s="113"/>
+      <c r="AX54" s="120"/>
+      <c r="AY54" s="121"/>
+      <c r="AZ54" s="122"/>
       <c r="BA54" s="30"/>
       <c r="BB54" s="35"/>
       <c r="BC54" s="25"/>
       <c r="BD54" s="25"/>
       <c r="BE54" s="25"/>
-      <c r="BF54" s="67"/>
+      <c r="BF54" s="54"/>
     </row>
-    <row r="55" spans="1:58" ht="20.100000" customHeight="1">
-      <c r="A55" s="69"/>
-      <c r="B55" s="20"/>
+    <row r="55" spans="1:58" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="88"/>
+      <c r="B55" s="90"/>
       <c r="C55" s="19">
         <v>19</v>
       </c>
       <c r="D55" s="20" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="E55" s="21">
-        <v>45524</v>
+        <v>45531</v>
       </c>
       <c r="F55" s="21">
-        <v>45525</v>
+        <v>45534</v>
       </c>
       <c r="G55" s="19">
         <v>4</v>
@@ -5954,42 +5462,49 @@
       <c r="AZ55" s="42"/>
       <c r="BA55" s="43"/>
       <c r="BB55" s="42"/>
-      <c r="BC55" s="108"/>
-      <c r="BD55" s="109"/>
-      <c r="BE55" s="109"/>
-      <c r="BF55" s="110"/>
+      <c r="BC55" s="123"/>
+      <c r="BD55" s="124"/>
+      <c r="BE55" s="124"/>
+      <c r="BF55" s="125"/>
     </row>
   </sheetData>
   <mergeCells count="74">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:AB1"/>
-    <mergeCell ref="AC1:BF1"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="A8:A12"/>
-    <mergeCell ref="B8:B12"/>
-    <mergeCell ref="T9:W9"/>
-    <mergeCell ref="AA11:AC11"/>
-    <mergeCell ref="AD12:AE12"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="AG14:AI14"/>
-    <mergeCell ref="AJ15:AL15"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="B16:B21"/>
-    <mergeCell ref="AN16:AO16"/>
+    <mergeCell ref="AQ52:AS52"/>
+    <mergeCell ref="AU53:AW53"/>
+    <mergeCell ref="AX54:AZ54"/>
+    <mergeCell ref="BC55:BF55"/>
+    <mergeCell ref="AH49:AI49"/>
+    <mergeCell ref="A50:A55"/>
+    <mergeCell ref="B50:B55"/>
+    <mergeCell ref="AJ50:AL50"/>
+    <mergeCell ref="AO51:AP51"/>
+    <mergeCell ref="U46:X46"/>
+    <mergeCell ref="Z46:AA46"/>
+    <mergeCell ref="AB47:AC47"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="AC48:AE48"/>
+    <mergeCell ref="A43:A47"/>
+    <mergeCell ref="B43:B47"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="O44:Q44"/>
+    <mergeCell ref="S45:T45"/>
+    <mergeCell ref="AP37:AR37"/>
+    <mergeCell ref="AV39:AW39"/>
+    <mergeCell ref="A40:A42"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="A33:A39"/>
+    <mergeCell ref="B33:B39"/>
+    <mergeCell ref="AH34:AJ34"/>
+    <mergeCell ref="AK35:AL35"/>
+    <mergeCell ref="AN36:AO36"/>
+    <mergeCell ref="AX29:AY29"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="V30:X30"/>
+    <mergeCell ref="Z31:AB31"/>
+    <mergeCell ref="AC32:AE32"/>
     <mergeCell ref="AV21:AW21"/>
     <mergeCell ref="A22:A24"/>
     <mergeCell ref="B22:B24"/>
@@ -5999,46 +5514,38 @@
     <mergeCell ref="M26:N26"/>
     <mergeCell ref="O27:Q27"/>
     <mergeCell ref="S27:T27"/>
-    <mergeCell ref="AX29:AY29"/>
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="V30:X30"/>
-    <mergeCell ref="Z31:AB31"/>
-    <mergeCell ref="AC32:AE32"/>
-    <mergeCell ref="A33:A39"/>
-    <mergeCell ref="B33:B39"/>
-    <mergeCell ref="AH34:AJ34"/>
-    <mergeCell ref="AK35:AL35"/>
-    <mergeCell ref="AN36:AO36"/>
-    <mergeCell ref="AP37:AR37"/>
-    <mergeCell ref="AV39:AW39"/>
-    <mergeCell ref="A40:A42"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="A43:A47"/>
-    <mergeCell ref="B43:B47"/>
-    <mergeCell ref="N43:O43"/>
-    <mergeCell ref="O44:Q44"/>
-    <mergeCell ref="S45:T45"/>
-    <mergeCell ref="U46:X46"/>
-    <mergeCell ref="Z46:AA46"/>
-    <mergeCell ref="AB47:AC47"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="AC48:AE48"/>
-    <mergeCell ref="AH49:AI49"/>
-    <mergeCell ref="A50:A55"/>
-    <mergeCell ref="B50:B55"/>
-    <mergeCell ref="AJ50:AL50"/>
-    <mergeCell ref="AO51:AP51"/>
-    <mergeCell ref="AQ52:AS52"/>
-    <mergeCell ref="AU53:AW53"/>
-    <mergeCell ref="AX54:AZ54"/>
-    <mergeCell ref="BC55:BF55"/>
+    <mergeCell ref="AG14:AI14"/>
+    <mergeCell ref="AJ15:AL15"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="B16:B21"/>
+    <mergeCell ref="AN16:AO16"/>
+    <mergeCell ref="T9:W9"/>
+    <mergeCell ref="AA11:AC11"/>
+    <mergeCell ref="AD12:AE12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="B8:B12"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:AB1"/>
+    <mergeCell ref="AC1:BF1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>